--- a/tablas/medidas_tanzania.xlsx
+++ b/tablas/medidas_tanzania.xlsx
@@ -135,28 +135,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>17045.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4426.0</v>
+      </c>
+      <c r="D2" t="n">
         <v>27655.0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>5631.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>17045.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4426.0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.8308297782851649</v>
+        <v>0.7938614875879093</v>
       </c>
       <c r="G2" t="n">
+        <v>0.7516757805609455</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.8620367195536299</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.7516757805609455</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.8461456086404455</v>
+        <v>0.7721929009898748</v>
       </c>
       <c r="J2" t="n">
         <v>0.8163339846960206</v>
@@ -168,7 +168,7 @@
         <v>0.8049671571205074</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8453287875156354</v>
+        <v>0.8444483996005123</v>
       </c>
     </row>
     <row r="3">
@@ -178,28 +178,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>14060.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8517.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>23742.0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>8764.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>14060.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8517.0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.7303882360179659</v>
+        <v>0.6227576737387607</v>
       </c>
       <c r="G3" t="n">
+        <v>0.616018226428321</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.7359806565609597</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.616018226428321</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.7331737821354126</v>
+        <v>0.6193696174093082</v>
       </c>
       <c r="J3" t="n">
         <v>0.686273441896774</v>
@@ -211,7 +211,7 @@
         <v>0.6733331261272043</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7418318726976336</v>
+        <v>0.7418318726976337</v>
       </c>
     </row>
     <row r="4">
@@ -221,29 +221,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
         <v>32259.0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>22824.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5856434834703992</v>
-      </c>
+      <c r="F4"/>
       <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7386824208284674</v>
-      </c>
+      <c r="I4"/>
       <c r="J4" t="n">
         <v>0.5856434834703992</v>
       </c>
@@ -264,40 +260,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24094.0</v>
+        <v>16149.0</v>
       </c>
       <c r="C5" t="n">
-        <v>5180.0</v>
+        <v>5813.0</v>
       </c>
       <c r="D5" t="n">
-        <v>17644.0</v>
+        <v>26446.0</v>
       </c>
       <c r="E5" t="n">
-        <v>8165.0</v>
+        <v>6675.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8230511716881874</v>
+        <v>0.7353155450323285</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7468923401221365</v>
+        <v>0.7075446898002103</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7730459165790396</v>
+        <v>0.8198022257354537</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7831245022995791</v>
+        <v>0.721162863394811</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7577292449576094</v>
+        <v>0.7732875841911298</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5101807765692125</v>
+        <v>0.530275637811701</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7598566138789481</v>
+        <v>0.7616079775747583</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8488718445987307</v>
+        <v>0.8488871879585596</v>
       </c>
     </row>
     <row r="6">
@@ -307,40 +303,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27939.0</v>
+        <v>16536.0</v>
       </c>
       <c r="C6" t="n">
-        <v>6265.0</v>
+        <v>4366.0</v>
       </c>
       <c r="D6" t="n">
-        <v>16559.0</v>
+        <v>27893.0</v>
       </c>
       <c r="E6" t="n">
-        <v>4320.0</v>
+        <v>6288.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8168342883873231</v>
+        <v>0.7911204669409626</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8660838835673765</v>
+        <v>0.7245005257623555</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7255082369435681</v>
+        <v>0.8646579249201773</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8407384559830281</v>
+        <v>0.7563463385628688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8078354483234391</v>
+        <v>0.8065827932392934</v>
       </c>
       <c r="K6" t="n">
-        <v>0.599057595317173</v>
+        <v>0.5965042006071125</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7926859349150872</v>
+        <v>0.7914828622334509</v>
       </c>
       <c r="M6" t="n">
-        <v>0.875292316334446</v>
+        <v>0.874645775103436</v>
       </c>
     </row>
     <row r="7">
@@ -350,28 +346,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>16702.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4670.0</v>
+      </c>
+      <c r="D7" t="n">
         <v>27589.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>6122.0</v>
       </c>
-      <c r="D7" t="n">
-        <v>16702.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4670.0</v>
-      </c>
       <c r="F7" t="n">
-        <v>0.8183975556939871</v>
+        <v>0.7814897997379749</v>
       </c>
       <c r="G7" t="n">
+        <v>0.7317735716789344</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.855234198208252</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.7317735716789344</v>
-      </c>
       <c r="I7" t="n">
-        <v>0.8364104896164923</v>
+        <v>0.7558150058828853</v>
       </c>
       <c r="J7" t="n">
         <v>0.8040774830710019</v>
